--- a/data/female_conditioning/virgin/1-4_oviposition_virgin_3.xlsx
+++ b/data/female_conditioning/virgin/1-4_oviposition_virgin_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Documents/microbial-impacts-on-dietary-choice-in-drosophila-melanogaster3/data/female_conditioning/virgin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DFF6EC9-6027-2046-9958-55A7F937CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B375342F-8B5D-E449-8B56-937CAD25E09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A7E72118-8719-FE4F-95A5-78B26C1B2526}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4FB947A7-4859-6C44-9B82-EBBF5CB85D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>plate</t>
   </si>
   <si>
-    <t>1:4 Conditioned</t>
+    <t>1:4 Unconditioned</t>
   </si>
   <si>
-    <t>1:4 Unconditioned</t>
+    <t>1:4 Conditioned</t>
   </si>
 </sst>
 </file>
@@ -415,17 +415,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1E9D80-2B38-374D-BE09-8C5CF6307E18}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4386A0A-01DC-5649-BE05-622DF5B88513}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="276" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -477,10 +477,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
